--- a/2015-2016/PRE_PRO/pasantes/datos_pasantes/2015/alvaro/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_01_05_junio.xlsx
+++ b/2015-2016/PRE_PRO/pasantes/datos_pasantes/2015/alvaro/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_01_05_junio.xlsx
@@ -480,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -597,55 +597,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,6 +675,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -717,32 +726,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,16 +929,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>464040</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137468</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>289285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>938880</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:colOff>95237</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -943,8 +953,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035440" y="126000"/>
-          <a:ext cx="474840" cy="760680"/>
+          <a:off x="804218" y="289285"/>
+          <a:ext cx="474840" cy="778414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1355,214 +1365,214 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1606,321 +1616,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26" t="s">
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="15">
         <v>42160</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="16">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="16">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="A17:L17"/>
@@ -1929,11 +1944,6 @@
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.196527777777778" top="0.39374999999999999" bottom="0.51180555555555496" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1944,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D9" sqref="D9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,105 +1972,106 @@
     <col min="9" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>46</v>
       </c>
@@ -2076,121 +2087,126 @@
       </c>
       <c r="H9" s="43"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>42160</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="16">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H16"/>
@@ -2201,11 +2217,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47222222222222199" right="0.196527777777778" top="0.39374999999999999" bottom="0.118055555555556" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2238,74 +2249,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
@@ -2322,18 +2333,18 @@
       <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
@@ -2354,13 +2365,13 @@
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="48" t="s">
         <v>63</v>
       </c>
@@ -2368,211 +2379,216 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
@@ -2581,11 +2597,6 @@
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="7.8472222222222193E-2" right="0" top="0.39374999999999999" bottom="0.118055555555556" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2617,20 +2628,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
@@ -2644,9 +2655,9 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="51" t="s">
@@ -2660,249 +2671,249 @@
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.196527777777778" top="0.39374999999999999" bottom="0.51180555555555496" header="0.51180555555555496" footer="0.51180555555555496"/>
